--- a/Test Data/Testdata.xlsx
+++ b/Test Data/Testdata.xlsx
@@ -42,7 +42,7 @@
     <t>Website</t>
   </si>
   <si>
-    <t>https://github.com/gscaria1/gSTAX</t>
+    <t>https://facebook.com</t>
   </si>
   <si>
     <t>Chrome</t>
@@ -80,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -92,22 +92,23 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,6 +129,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -145,28 +153,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -176,7 +184,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,54 +213,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,127 +252,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,55 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,17 +446,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,8 +458,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,18 +481,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +501,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,11 +537,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,15 +548,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,138 +566,141 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1030,7 +1033,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="12.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1060,7 +1063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="14.5" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1070,7 +1073,7 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1140,9 +1143,12 @@
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="2"/>
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://facebook.com"/>
+  </hyperlinks>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="256" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>

--- a/Test Data/Testdata.xlsx
+++ b/Test Data/Testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="42">
   <si>
     <t>TC_ID</t>
   </si>
@@ -39,37 +39,106 @@
     <t>Y</t>
   </si>
   <si>
+    <t>Tricentis</t>
+  </si>
+  <si>
+    <t>http://demowebshop.tricentis.com/</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>TC_2</t>
+  </si>
+  <si>
+    <t>Tricentis2</t>
+  </si>
+  <si>
+    <t>TC_3</t>
+  </si>
+  <si>
+    <t>TC_4</t>
+  </si>
+  <si>
+    <t>TC_5</t>
+  </si>
+  <si>
+    <t>TC_6</t>
+  </si>
+  <si>
+    <t>TC_7</t>
+  </si>
+  <si>
+    <t>TC_8</t>
+  </si>
+  <si>
+    <t>TC_9</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Website</t>
   </si>
   <si>
     <t>https://facebook.com</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>TC_2</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Opera</t>
-  </si>
-  <si>
-    <t>TC_3</t>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>https://google.com</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>TC_23</t>
   </si>
   <si>
     <t>https://www.linkedin.com/notifications/</t>
   </si>
   <si>
-    <t>Edge</t>
-  </si>
-  <si>
-    <t>TC_4</t>
-  </si>
-  <si>
-    <t>TC_5</t>
+    <t>TC_24</t>
+  </si>
+  <si>
+    <t>TC_25</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/george-scaria/</t>
@@ -81,9 +150,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -107,8 +176,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,8 +206,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,7 +230,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,8 +268,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -168,7 +284,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,67 +311,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -258,181 +327,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,6 +512,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,11 +554,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,51 +595,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -543,20 +603,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,134 +635,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,9 +770,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,18 +1096,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="12.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="12.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.72727272727273" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.90909090909091" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.3636363636364" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7272727272727" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7272727272727" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.27272727272727" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.13636363636364" style="1"/>
   </cols>
@@ -1080,23 +1146,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="14.5" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="14.5" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1104,30 +1173,33 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="14.5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="14.5" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1135,19 +1207,380 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="14.5" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="14.5" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="14.5" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="14.5" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="3"/>
-    </row>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="14.5" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="14.5" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="14.5" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="14.5" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="14.5" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="14.5" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="14.5" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" ht="14.5" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" ht="14.5" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="14.5" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="14.5" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" ht="14.5" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" ht="14.5" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" ht="14.5" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" customFormat="1"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+    <row r="43" customFormat="1"/>
+    <row r="44" customFormat="1"/>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" customFormat="1"/>
+    <row r="48" customFormat="1"/>
+    <row r="49" customFormat="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://facebook.com"/>
+    <hyperlink ref="D22" r:id="rId1" display="https://facebook.com"/>
+    <hyperlink ref="D23" r:id="rId2" display="https://google.com" tooltip="https://google.com"/>
   </hyperlinks>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="256" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>

--- a/Test Data/Testdata.xlsx
+++ b/Test Data/Testdata.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000ME8744\Desktop\460\Testing\gSTAX-Example\Test Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E2F85C-2CAE-47AB-99FD-8B3D4D7092E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7110"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="144525" iterate="1"/>
 </workbook>
 </file>
 
@@ -147,366 +153,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -514,251 +183,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -769,70 +199,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1090,29 +477,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="12.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.72727272727273" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.90909090909091" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3636363636364" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.7272727272727" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.27272727272727" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.13636363636364" style="1"/>
+    <col min="1" max="1" width="6.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.5" spans="1:5">
+    <row r="2" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1146,7 +533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="14.5" spans="1:5">
+    <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1163,12 +550,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="14.5" spans="1:5">
+    <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -1180,12 +567,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="14.5" spans="1:5">
+    <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -1197,12 +584,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="14.5" spans="1:5">
+    <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -1214,12 +601,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="14.5" spans="1:5">
+    <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -1231,12 +618,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="14.5" spans="1:5">
+    <row r="8" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -1248,12 +635,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="14.5" spans="1:5">
+    <row r="9" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -1265,12 +652,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="14.5" spans="1:5">
+    <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -1282,12 +669,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="14.5" spans="1:5">
+    <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -1299,12 +686,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" ht="14.5" spans="1:5">
+    <row r="12" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -1316,12 +703,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="14.5" spans="1:5">
+    <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -1333,12 +720,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" ht="14.5" spans="1:5">
+    <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1350,12 +737,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" ht="14.5" spans="1:5">
+    <row r="15" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -1367,12 +754,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" ht="14.5" spans="1:5">
+    <row r="16" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
@@ -1384,12 +771,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" ht="14.5" spans="1:5">
+    <row r="17" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
@@ -1401,12 +788,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" ht="14.5" spans="1:5">
+    <row r="18" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
@@ -1418,12 +805,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" ht="14.5" spans="1:5">
+    <row r="19" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -1435,12 +822,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" ht="14.5" spans="1:5">
+    <row r="20" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
@@ -1452,12 +839,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" ht="14.5" spans="1:5">
+    <row r="21" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -1469,7 +856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" ht="14.5" spans="1:5">
+    <row r="22" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1486,7 +873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" ht="14.5" spans="1:5">
+    <row r="23" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -1503,7 +890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1520,7 +907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" ht="14.5" spans="1:5">
+    <row r="25" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -1537,7 +924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -1554,70 +941,41 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" customFormat="1"/>
-    <row r="28" customFormat="1"/>
-    <row r="29" customFormat="1"/>
-    <row r="30" customFormat="1"/>
-    <row r="31" customFormat="1"/>
-    <row r="32" customFormat="1"/>
-    <row r="33" customFormat="1"/>
-    <row r="34" customFormat="1"/>
-    <row r="35" customFormat="1"/>
-    <row r="36" customFormat="1"/>
-    <row r="37" customFormat="1"/>
-    <row r="38" customFormat="1"/>
-    <row r="39" customFormat="1"/>
-    <row r="40" customFormat="1"/>
-    <row r="41" customFormat="1"/>
-    <row r="42" customFormat="1"/>
-    <row r="43" customFormat="1"/>
-    <row r="44" customFormat="1"/>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
-    <row r="47" customFormat="1"/>
-    <row r="48" customFormat="1"/>
-    <row r="49" customFormat="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D22" r:id="rId1" display="https://facebook.com"/>
-    <hyperlink ref="D23" r:id="rId2" display="https://google.com" tooltip="https://google.com"/>
+    <hyperlink ref="D22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D23" r:id="rId2" tooltip="https://google.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="256" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="256" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" errors="NA" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" errors="NA"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" errors="NA" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" errors="NA"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>